--- a/CHANTIERS_ITB77/2241/2241.xlsx
+++ b/CHANTIERS_ITB77/2241/2241.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,86 @@
         <is>
           <t>Volume (m3)</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Voile Bat A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Voile Bat A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/CHANTIERS_ITB77/2241/2241.xlsx
+++ b/CHANTIERS_ITB77/2241/2241.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,86 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Voile Bat A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UNIBETON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Voile Bat A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
         <v>7.5</v>
       </c>
     </row>
